--- a/natmiOut/OldD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.757765195308893</v>
+        <v>1.7949255</v>
       </c>
       <c r="H2">
-        <v>0.757765195308893</v>
+        <v>3.589851</v>
       </c>
       <c r="I2">
-        <v>0.1545021001276573</v>
+        <v>0.1923194735835025</v>
       </c>
       <c r="J2">
-        <v>0.1545021001276573</v>
+        <v>0.1518386156683737</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14813007524586</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N2">
-        <v>2.14813007524586</v>
+        <v>7.335584</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.838913138746902</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.872970787141563</v>
       </c>
       <c r="Q2">
-        <v>1.627778206017586</v>
+        <v>4.388942259664</v>
       </c>
       <c r="R2">
-        <v>1.627778206017586</v>
+        <v>26.333653557984</v>
       </c>
       <c r="S2">
-        <v>0.1545021001276573</v>
+        <v>0.161339333226088</v>
       </c>
       <c r="T2">
-        <v>0.1545021001276573</v>
+        <v>0.1325506758385055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.15069237808034</v>
+        <v>1.7949255</v>
       </c>
       <c r="H3">
-        <v>1.15069237808034</v>
+        <v>3.589851</v>
       </c>
       <c r="I3">
-        <v>0.2346167257547759</v>
+        <v>0.1923194735835025</v>
       </c>
       <c r="J3">
-        <v>0.2346167257547759</v>
+        <v>0.1518386156683737</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.14813007524586</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N3">
-        <v>2.14813007524586</v>
+        <v>0.233389</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02669086722188728</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02777444563925412</v>
       </c>
       <c r="Q3">
-        <v>2.471836904710558</v>
+        <v>0.1396386225065</v>
       </c>
       <c r="R3">
-        <v>2.471836904710558</v>
+        <v>0.837831735039</v>
       </c>
       <c r="S3">
-        <v>0.2346167257547759</v>
+        <v>0.005133173533600523</v>
       </c>
       <c r="T3">
-        <v>0.2346167257547759</v>
+        <v>0.004217233376820844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.19851496387994</v>
+        <v>1.7949255</v>
       </c>
       <c r="H4">
-        <v>1.19851496387994</v>
+        <v>3.589851</v>
       </c>
       <c r="I4">
-        <v>0.244367358253226</v>
+        <v>0.1923194735835025</v>
       </c>
       <c r="J4">
-        <v>0.244367358253226</v>
+        <v>0.1518386156683737</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.14813007524586</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N4">
-        <v>2.14813007524586</v>
+        <v>0.151759</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0173554851288038</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01806007179330459</v>
       </c>
       <c r="Q4">
-        <v>2.574566039542705</v>
+        <v>0.0907986996515</v>
       </c>
       <c r="R4">
-        <v>2.574566039542705</v>
+        <v>0.544792197909</v>
       </c>
       <c r="S4">
-        <v>0.244367358253226</v>
+        <v>0.003337797763757854</v>
       </c>
       <c r="T4">
-        <v>0.244367358253226</v>
+        <v>0.002742216299966813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>1.7949255</v>
+      </c>
+      <c r="H5">
+        <v>3.589851</v>
+      </c>
+      <c r="I5">
+        <v>0.1923194735835025</v>
+      </c>
+      <c r="J5">
+        <v>0.1518386156683737</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.34114</v>
+      </c>
+      <c r="N5">
+        <v>0.68228</v>
+      </c>
+      <c r="O5">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P5">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q5">
+        <v>0.6123208850699999</v>
+      </c>
+      <c r="R5">
+        <v>2.44928354028</v>
+      </c>
+      <c r="S5">
+        <v>0.02250916906005616</v>
+      </c>
+      <c r="T5">
+        <v>0.01232849015308059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8790993333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.637298</v>
+      </c>
+      <c r="I6">
+        <v>0.09419216620092292</v>
+      </c>
+      <c r="J6">
+        <v>0.1115488295823338</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N6">
+        <v>7.335584</v>
+      </c>
+      <c r="O6">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P6">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q6">
+        <v>2.149569001336889</v>
+      </c>
+      <c r="R6">
+        <v>19.346121012032</v>
+      </c>
+      <c r="S6">
+        <v>0.0790190457929861</v>
+      </c>
+      <c r="T6">
+        <v>0.09737886956521002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8790993333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.637298</v>
+      </c>
+      <c r="I7">
+        <v>0.09419216620092292</v>
+      </c>
+      <c r="J7">
+        <v>0.1115488295823338</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.233389</v>
+      </c>
+      <c r="O7">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P7">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q7">
+        <v>0.06839070476911112</v>
+      </c>
+      <c r="R7">
+        <v>0.615516342922</v>
+      </c>
+      <c r="S7">
+        <v>0.002514070601410772</v>
+      </c>
+      <c r="T7">
+        <v>0.003098206903356952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8790993333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.637298</v>
+      </c>
+      <c r="I8">
+        <v>0.09419216620092292</v>
+      </c>
+      <c r="J8">
+        <v>0.1115488295823338</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.151759</v>
+      </c>
+      <c r="O8">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P8">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q8">
+        <v>0.04447041190911111</v>
+      </c>
+      <c r="R8">
+        <v>0.400233707182</v>
+      </c>
+      <c r="S8">
+        <v>0.001634750739749934</v>
+      </c>
+      <c r="T8">
+        <v>0.002014579870716048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.79758989057349</v>
-      </c>
-      <c r="H5">
-        <v>1.79758989057349</v>
-      </c>
-      <c r="I5">
-        <v>0.3665138158643408</v>
-      </c>
-      <c r="J5">
-        <v>0.3665138158643408</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.14813007524586</v>
-      </c>
-      <c r="N5">
-        <v>2.14813007524586</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>3.861456906898828</v>
-      </c>
-      <c r="R5">
-        <v>3.861456906898828</v>
-      </c>
-      <c r="S5">
-        <v>0.3665138158643408</v>
-      </c>
-      <c r="T5">
-        <v>0.3665138158643408</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8790993333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.637298</v>
+      </c>
+      <c r="I9">
+        <v>0.09419216620092292</v>
+      </c>
+      <c r="J9">
+        <v>0.1115488295823338</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.34114</v>
+      </c>
+      <c r="N9">
+        <v>0.68228</v>
+      </c>
+      <c r="O9">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P9">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q9">
+        <v>0.2998959465733333</v>
+      </c>
+      <c r="R9">
+        <v>1.79937567944</v>
+      </c>
+      <c r="S9">
+        <v>0.01102429906677612</v>
+      </c>
+      <c r="T9">
+        <v>0.009057173243050791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.187206</v>
+      </c>
+      <c r="H10">
+        <v>3.561618</v>
+      </c>
+      <c r="I10">
+        <v>0.1272046293593666</v>
+      </c>
+      <c r="J10">
+        <v>0.1506444547864415</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.335584</v>
+      </c>
+      <c r="O10">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P10">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q10">
+        <v>2.902949779434667</v>
+      </c>
+      <c r="R10">
+        <v>26.126548014912</v>
+      </c>
+      <c r="S10">
+        <v>0.1067136348790025</v>
+      </c>
+      <c r="T10">
+        <v>0.1315082082734314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.187206</v>
+      </c>
+      <c r="H11">
+        <v>3.561618</v>
+      </c>
+      <c r="I11">
+        <v>0.1272046293593666</v>
+      </c>
+      <c r="J11">
+        <v>0.1506444547864415</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.233389</v>
+      </c>
+      <c r="O11">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P11">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q11">
+        <v>0.09236027371133335</v>
+      </c>
+      <c r="R11">
+        <v>0.831242463402</v>
+      </c>
+      <c r="S11">
+        <v>0.003395201872240237</v>
+      </c>
+      <c r="T11">
+        <v>0.004184066220321094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.187206</v>
+      </c>
+      <c r="H12">
+        <v>3.561618</v>
+      </c>
+      <c r="I12">
+        <v>0.1272046293593666</v>
+      </c>
+      <c r="J12">
+        <v>0.1506444547864415</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.151759</v>
+      </c>
+      <c r="O12">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P12">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q12">
+        <v>0.06005639845133334</v>
+      </c>
+      <c r="R12">
+        <v>0.540507586062</v>
+      </c>
+      <c r="S12">
+        <v>0.002207698053161486</v>
+      </c>
+      <c r="T12">
+        <v>0.002720649668706361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.187206</v>
+      </c>
+      <c r="H13">
+        <v>3.561618</v>
+      </c>
+      <c r="I13">
+        <v>0.1272046293593666</v>
+      </c>
+      <c r="J13">
+        <v>0.1506444547864415</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.34114</v>
+      </c>
+      <c r="N13">
+        <v>0.68228</v>
+      </c>
+      <c r="O13">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P13">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q13">
+        <v>0.40500345484</v>
+      </c>
+      <c r="R13">
+        <v>2.43002072904</v>
+      </c>
+      <c r="S13">
+        <v>0.01488809455496233</v>
+      </c>
+      <c r="T13">
+        <v>0.0122315306239826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.266711333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.800134</v>
+      </c>
+      <c r="I14">
+        <v>0.1357233249006286</v>
+      </c>
+      <c r="J14">
+        <v>0.1607328788616351</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.335584</v>
+      </c>
+      <c r="O14">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P14">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q14">
+        <v>3.097355796472889</v>
+      </c>
+      <c r="R14">
+        <v>27.876202168256</v>
+      </c>
+      <c r="S14">
+        <v>0.1138600804935519</v>
+      </c>
+      <c r="T14">
+        <v>0.1403151077793711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.266711333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.800134</v>
+      </c>
+      <c r="I15">
+        <v>0.1357233249006286</v>
+      </c>
+      <c r="J15">
+        <v>0.1607328788616351</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.233389</v>
+      </c>
+      <c r="O15">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P15">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q15">
+        <v>0.09854549712511113</v>
+      </c>
+      <c r="R15">
+        <v>0.8869094741260001</v>
+      </c>
+      <c r="S15">
+        <v>0.003622573243835745</v>
+      </c>
+      <c r="T15">
+        <v>0.004464266606383302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.266711333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.800134</v>
+      </c>
+      <c r="I16">
+        <v>0.1357233249006286</v>
+      </c>
+      <c r="J16">
+        <v>0.1607328788616351</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.151759</v>
+      </c>
+      <c r="O16">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P16">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q16">
+        <v>0.06407828174511111</v>
+      </c>
+      <c r="R16">
+        <v>0.576704535706</v>
+      </c>
+      <c r="S16">
+        <v>0.002355544146944667</v>
+      </c>
+      <c r="T16">
+        <v>0.002902847331785661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.266711333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.800134</v>
+      </c>
+      <c r="I17">
+        <v>0.1357233249006286</v>
+      </c>
+      <c r="J17">
+        <v>0.1607328788616351</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.34114</v>
+      </c>
+      <c r="N17">
+        <v>0.68228</v>
+      </c>
+      <c r="O17">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P17">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q17">
+        <v>0.4321259042533333</v>
+      </c>
+      <c r="R17">
+        <v>2.59275542552</v>
+      </c>
+      <c r="S17">
+        <v>0.0158851270162963</v>
+      </c>
+      <c r="T17">
+        <v>0.01305065714409505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.643444666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.930334</v>
+      </c>
+      <c r="I18">
+        <v>0.176088875642442</v>
+      </c>
+      <c r="J18">
+        <v>0.2085365351772861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.335584</v>
+      </c>
+      <c r="O18">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P18">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q18">
+        <v>4.018542133895111</v>
+      </c>
+      <c r="R18">
+        <v>36.166879205056</v>
+      </c>
+      <c r="S18">
+        <v>0.147723271363614</v>
+      </c>
+      <c r="T18">
+        <v>0.1820463032614897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.643444666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.930334</v>
+      </c>
+      <c r="I19">
+        <v>0.176088875642442</v>
+      </c>
+      <c r="J19">
+        <v>0.2085365351772861</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.233389</v>
+      </c>
+      <c r="O19">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P19">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q19">
+        <v>0.1278539691028889</v>
+      </c>
+      <c r="R19">
+        <v>1.150685721926</v>
+      </c>
+      <c r="S19">
+        <v>0.004699964799023841</v>
+      </c>
+      <c r="T19">
+        <v>0.005791986660079937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.643444666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.930334</v>
+      </c>
+      <c r="I20">
+        <v>0.176088875642442</v>
+      </c>
+      <c r="J20">
+        <v>0.2085365351772861</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.151759</v>
+      </c>
+      <c r="O20">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P20">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q20">
+        <v>0.08313583972288889</v>
+      </c>
+      <c r="R20">
+        <v>0.7482225575060001</v>
+      </c>
+      <c r="S20">
+        <v>0.003056107862560185</v>
+      </c>
+      <c r="T20">
+        <v>0.003766184796828775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.643444666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.930334</v>
+      </c>
+      <c r="I21">
+        <v>0.176088875642442</v>
+      </c>
+      <c r="J21">
+        <v>0.2085365351772861</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.34114</v>
+      </c>
+      <c r="N21">
+        <v>0.68228</v>
+      </c>
+      <c r="O21">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P21">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q21">
+        <v>0.5606447135866667</v>
+      </c>
+      <c r="R21">
+        <v>3.36386828152</v>
+      </c>
+      <c r="S21">
+        <v>0.02060953161724408</v>
+      </c>
+      <c r="T21">
+        <v>0.01693206045888769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.561654</v>
+      </c>
+      <c r="H22">
+        <v>5.123308</v>
+      </c>
+      <c r="I22">
+        <v>0.2744715303131375</v>
+      </c>
+      <c r="J22">
+        <v>0.2166986859239295</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.335584</v>
+      </c>
+      <c r="O22">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P22">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q22">
+        <v>6.263742698645333</v>
+      </c>
+      <c r="R22">
+        <v>37.582456191872</v>
+      </c>
+      <c r="S22">
+        <v>0.2302577729916597</v>
+      </c>
+      <c r="T22">
+        <v>0.1891716224235551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.561654</v>
+      </c>
+      <c r="H23">
+        <v>5.123308</v>
+      </c>
+      <c r="I23">
+        <v>0.2744715303131375</v>
+      </c>
+      <c r="J23">
+        <v>0.2166986859239295</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.233389</v>
+      </c>
+      <c r="O23">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P23">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q23">
+        <v>0.1992872884686667</v>
+      </c>
+      <c r="R23">
+        <v>1.195723730812</v>
+      </c>
+      <c r="S23">
+        <v>0.007325883171776163</v>
+      </c>
+      <c r="T23">
+        <v>0.006018685872291983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.561654</v>
+      </c>
+      <c r="H24">
+        <v>5.123308</v>
+      </c>
+      <c r="I24">
+        <v>0.2744715303131375</v>
+      </c>
+      <c r="J24">
+        <v>0.2166986859239295</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.151759</v>
+      </c>
+      <c r="O24">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P24">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q24">
+        <v>0.1295846831286667</v>
+      </c>
+      <c r="R24">
+        <v>0.777508098772</v>
+      </c>
+      <c r="S24">
+        <v>0.004763586562629681</v>
+      </c>
+      <c r="T24">
+        <v>0.003913593825300931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.561654</v>
+      </c>
+      <c r="H25">
+        <v>5.123308</v>
+      </c>
+      <c r="I25">
+        <v>0.2744715303131375</v>
+      </c>
+      <c r="J25">
+        <v>0.2166986859239295</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.34114</v>
+      </c>
+      <c r="N25">
+        <v>0.68228</v>
+      </c>
+      <c r="O25">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P25">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q25">
+        <v>0.8738826455599999</v>
+      </c>
+      <c r="R25">
+        <v>3.49553058224</v>
+      </c>
+      <c r="S25">
+        <v>0.03212428758707205</v>
+      </c>
+      <c r="T25">
+        <v>0.01759478380278151</v>
       </c>
     </row>
   </sheetData>
